--- a/Excel/Ch. 07. Excel - Normal Distribution - Inverse.xlsx
+++ b/Excel/Ch. 07. Excel - Normal Distribution - Inverse.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Costas\Documents\COSTAS - BIBLIO - APER - ENGLISH\BOOK\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -113,154 +113,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Value of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">x </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">for which the </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">probability  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">} = </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :   </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="161"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> =  </t>
-    </r>
-  </si>
-  <si>
     <t>Inverse Normal Distribution</t>
   </si>
   <si>
@@ -499,6 +351,154 @@
         <scheme val="minor"/>
       </rPr>
       <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Value of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">x </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for which the         </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">probability  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">} = </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :     </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =  </t>
     </r>
   </si>
 </sst>
@@ -668,14 +668,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -685,6 +682,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1003,7 +1003,7 @@
   <dimension ref="B1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,161 +1028,161 @@
     <row r="3" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G3" s="4"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
+      <c r="I3" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
       <c r="O3" s="9"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
       <c r="O4" s="9"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="2">
         <v>6</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
+      <c r="I5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
       <c r="O5" s="9"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="2"/>
       <c r="G6" s="4"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
+      <c r="I6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
       <c r="O6" s="9"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
       <c r="E7" s="2">
         <v>0.6</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
+      <c r="I7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
       <c r="O7" s="9"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G8" s="4"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
       <c r="O8" s="9"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-      <c r="C9" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="C9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="1"/>
       <c r="G9" s="4"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
+      <c r="I9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
       <c r="O9" s="9"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-      <c r="C10" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="C10" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="3">
         <f>E4+E5*_xlfn.NORM.S.INV(E7)</f>
-        <v>5.5200826188147989</v>
+        <v>7.5200826188147989</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
+      <c r="I10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
       <c r="O10" s="9"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G11" s="4"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
+      <c r="I11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="9"/>
     </row>
     <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1198,6 +1198,10 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="I5:N5"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="I7:N7"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="I9:N9"/>
     <mergeCell ref="C9:E9"/>
@@ -1209,10 +1213,6 @@
     <mergeCell ref="I10:N10"/>
     <mergeCell ref="I8:N8"/>
     <mergeCell ref="I4:N4"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="I5:N5"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="I7:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
